--- a/10.ProjectSprintBacklog .xlsx
+++ b/10.ProjectSprintBacklog .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DOWN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\XDWLTTTT1628\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1302,41 +1302,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1350,25 +1409,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1377,6 +1436,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1403,83 +1480,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1878,11 +1878,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-778667808"/>
-        <c:axId val="-778666176"/>
+        <c:axId val="-1530937776"/>
+        <c:axId val="-1530941584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-778667808"/>
+        <c:axId val="-1530937776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,14 +1892,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-778666176"/>
+        <c:crossAx val="-1530941584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-778666176"/>
+        <c:axId val="-1530941584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-778667808"/>
+        <c:crossAx val="-1530937776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,7 +1977,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2253,11 +2252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-778663456"/>
-        <c:axId val="-778669440"/>
+        <c:axId val="-1530951376"/>
+        <c:axId val="-1530948112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-778663456"/>
+        <c:axId val="-1530951376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2298,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778669440"/>
+        <c:crossAx val="-1530948112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2307,7 +2306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-778669440"/>
+        <c:axId val="-1530948112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,7 +2357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778663456"/>
+        <c:crossAx val="-1530951376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,7 +2371,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2553,7 +2551,7 @@
                   <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>138</c:v>
@@ -2788,11 +2786,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-783581104"/>
-        <c:axId val="-783578384"/>
+        <c:axId val="-1530945392"/>
+        <c:axId val="-1530939408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-783581104"/>
+        <c:axId val="-1530945392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2802,14 +2800,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-783578384"/>
+        <c:crossAx val="-1530939408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-783578384"/>
+        <c:axId val="-1530939408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-783581104"/>
+        <c:crossAx val="-1530945392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3405,7 +3403,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3439,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +3480,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,8 +3766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI135"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -3798,10 +3796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="36" t="s">
         <v>53</v>
       </c>
@@ -3809,13 +3807,13 @@
       <c r="F1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:35" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="70"/>
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
@@ -3823,13 +3821,13 @@
       <c r="F2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="89"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:35" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="70"/>
+      <c r="A3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="89"/>
       <c r="C3" s="37">
         <v>45741</v>
       </c>
@@ -3837,25 +3835,25 @@
       <c r="F3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="90"/>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:35" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70"/>
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89"/>
       <c r="C4" s="37">
         <v>45767</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:35" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:35" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
@@ -3952,10 +3950,10 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="6">
         <f>SUM(D8:D12)</f>
         <v>265.5</v>
@@ -3973,21 +3971,21 @@
       <c r="B15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="72" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="19" t="s">
         <v>43</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="60">
         <v>45741</v>
       </c>
       <c r="J15" s="20">
@@ -4096,25 +4094,25 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="53" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="21">
         <v>4</v>
       </c>
       <c r="H16" s="21">
         <v>4</v>
       </c>
-      <c r="I16" s="107">
+      <c r="I16" s="61">
         <v>0</v>
       </c>
       <c r="J16" s="21">
@@ -4197,16 +4195,16 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="53" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="21">
         <v>4</v>
       </c>
@@ -4296,16 +4294,16 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="53" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="53"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="21">
         <v>4</v>
       </c>
@@ -4395,18 +4393,18 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57" t="s">
+      <c r="A19" s="82"/>
+      <c r="B19" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="53" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="21">
         <v>1</v>
       </c>
@@ -4496,16 +4494,16 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="56" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="21">
         <v>1</v>
       </c>
@@ -4595,16 +4593,16 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="21">
         <v>2</v>
       </c>
@@ -4694,12 +4692,12 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="52"/>
@@ -4733,16 +4731,16 @@
       <c r="AI22" s="21"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="56" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="53" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="53"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="21">
         <v>1</v>
       </c>
@@ -4832,16 +4830,16 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="56" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="71"/>
+      <c r="E24" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="21">
         <v>1</v>
       </c>
@@ -4931,16 +4929,16 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="53" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="53"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="21">
         <v>1</v>
       </c>
@@ -5030,12 +5028,12 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="52"/>
@@ -5069,16 +5067,16 @@
       <c r="AI26" s="21"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="62" t="s">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="53" t="s">
+      <c r="D27" s="72"/>
+      <c r="E27" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="21">
         <v>1</v>
       </c>
@@ -5168,16 +5166,16 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="63" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="53" t="s">
+      <c r="D28" s="98"/>
+      <c r="E28" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="53"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="21">
         <v>1</v>
       </c>
@@ -5267,16 +5265,16 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="62" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="53" t="s">
+      <c r="D29" s="72"/>
+      <c r="E29" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="53"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="21">
         <v>1</v>
       </c>
@@ -5366,16 +5364,16 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="62" t="s">
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="53" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="76"/>
       <c r="G30" s="21">
         <v>1</v>
       </c>
@@ -5465,16 +5463,16 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="62" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="53" t="s">
+      <c r="D31" s="72"/>
+      <c r="E31" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="21">
         <v>1</v>
       </c>
@@ -5564,16 +5562,16 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="62" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="53" t="s">
+      <c r="D32" s="72"/>
+      <c r="E32" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="21">
         <v>1</v>
       </c>
@@ -5663,16 +5661,16 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="73" t="s">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="98"/>
-      <c r="E33" s="53" t="s">
+      <c r="D33" s="88"/>
+      <c r="E33" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="53"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="21">
         <v>6</v>
       </c>
@@ -5762,12 +5760,12 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="52"/>
@@ -5801,18 +5799,18 @@
       <c r="AI34" s="21"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
-      <c r="B35" s="59" t="s">
+      <c r="A35" s="82"/>
+      <c r="B35" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="53" t="s">
+      <c r="D35" s="72"/>
+      <c r="E35" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="53"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="21">
         <v>1</v>
       </c>
@@ -5902,16 +5900,16 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="62" t="s">
+      <c r="A36" s="82"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="53" t="s">
+      <c r="D36" s="72"/>
+      <c r="E36" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="21">
         <v>1</v>
       </c>
@@ -6001,12 +5999,12 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="52"/>
@@ -6040,16 +6038,16 @@
       <c r="AI37" s="21"/>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="62" t="s">
+      <c r="A38" s="82"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="102"/>
-      <c r="E38" s="53" t="s">
+      <c r="D38" s="72"/>
+      <c r="E38" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="76"/>
       <c r="G38" s="21">
         <v>1</v>
       </c>
@@ -6139,16 +6137,16 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="58" t="s">
+      <c r="A39" s="82"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="53" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="76"/>
       <c r="G39" s="21">
         <v>1</v>
       </c>
@@ -6238,16 +6236,16 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="56" t="s">
+      <c r="A40" s="82"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="53" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="76"/>
       <c r="G40" s="21">
         <v>1</v>
       </c>
@@ -6337,16 +6335,16 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="56" t="s">
+      <c r="A41" s="82"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="53" t="s">
+      <c r="D41" s="71"/>
+      <c r="E41" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F41" s="53"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="21">
         <v>1</v>
       </c>
@@ -6436,16 +6434,16 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="56" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="53" t="s">
+      <c r="D42" s="71"/>
+      <c r="E42" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="53"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="21">
         <v>1</v>
       </c>
@@ -6535,16 +6533,16 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43" s="57"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="56" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="53" t="s">
+      <c r="D43" s="71"/>
+      <c r="E43" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="53"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="21">
         <v>1</v>
       </c>
@@ -6634,16 +6632,16 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="56" t="s">
+      <c r="A44" s="82"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="53" t="s">
+      <c r="D44" s="71"/>
+      <c r="E44" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="76"/>
       <c r="G44" s="21">
         <v>1</v>
       </c>
@@ -6733,16 +6731,16 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="56" t="s">
+      <c r="A45" s="82"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="53" t="s">
+      <c r="D45" s="71"/>
+      <c r="E45" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="76"/>
       <c r="G45" s="21">
         <v>2</v>
       </c>
@@ -6832,12 +6830,12 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="52"/>
@@ -6871,16 +6869,16 @@
       <c r="AI46" s="21"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47" s="57"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="62" t="s">
+      <c r="A47" s="82"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="102"/>
-      <c r="E47" s="53" t="s">
+      <c r="D47" s="72"/>
+      <c r="E47" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="53"/>
+      <c r="F47" s="76"/>
       <c r="G47" s="21">
         <v>2</v>
       </c>
@@ -6970,16 +6968,16 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="56" t="s">
+      <c r="A48" s="82"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="53" t="s">
+      <c r="D48" s="71"/>
+      <c r="E48" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F48" s="53"/>
+      <c r="F48" s="76"/>
       <c r="G48" s="21">
         <v>1</v>
       </c>
@@ -7031,16 +7029,16 @@
       <c r="AI48" s="21"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A49" s="57"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="56" t="s">
+      <c r="A49" s="82"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="53" t="s">
+      <c r="D49" s="71"/>
+      <c r="E49" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="53"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="21">
         <v>4</v>
       </c>
@@ -7130,12 +7128,12 @@
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
       <c r="G50" s="21"/>
       <c r="H50" s="21"/>
       <c r="I50" s="52"/>
@@ -7171,18 +7169,18 @@
       <c r="AI50" s="21"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57" t="s">
+      <c r="A51" s="82"/>
+      <c r="B51" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="53" t="s">
+      <c r="D51" s="71"/>
+      <c r="E51" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F51" s="53"/>
+      <c r="F51" s="76"/>
       <c r="G51" s="21">
         <v>2</v>
       </c>
@@ -7272,16 +7270,16 @@
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="58" t="s">
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="62"/>
-      <c r="E52" s="53" t="s">
+      <c r="D52" s="71"/>
+      <c r="E52" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="21">
         <v>2</v>
       </c>
@@ -7371,16 +7369,16 @@
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="58" t="s">
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="53" t="s">
+      <c r="D53" s="71"/>
+      <c r="E53" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="53"/>
+      <c r="F53" s="76"/>
       <c r="G53" s="21">
         <v>3</v>
       </c>
@@ -7470,12 +7468,12 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
       <c r="G54" s="21"/>
       <c r="H54" s="21"/>
       <c r="I54" s="52"/>
@@ -7508,16 +7506,16 @@
       <c r="AI54" s="21"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="58" t="s">
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="53" t="s">
+      <c r="D55" s="71"/>
+      <c r="E55" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="53"/>
+      <c r="F55" s="76"/>
       <c r="G55" s="21">
         <v>4</v>
       </c>
@@ -7607,12 +7605,12 @@
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
       <c r="I56" s="52"/>
@@ -7645,16 +7643,16 @@
       <c r="AI56" s="21"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="56" t="s">
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="53" t="s">
+      <c r="D57" s="71"/>
+      <c r="E57" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="53"/>
+      <c r="F57" s="76"/>
       <c r="G57" s="21">
         <v>1</v>
       </c>
@@ -7744,12 +7742,12 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
       <c r="I58" s="52"/>
@@ -7783,16 +7781,16 @@
       <c r="AI58" s="21"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="56" t="s">
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="53" t="s">
+      <c r="D59" s="71"/>
+      <c r="E59" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="53"/>
+      <c r="F59" s="76"/>
       <c r="G59" s="21">
         <v>5</v>
       </c>
@@ -7882,12 +7880,12 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
       <c r="G60" s="21"/>
       <c r="H60" s="21"/>
       <c r="I60" s="52"/>
@@ -7921,16 +7919,16 @@
       <c r="AI60" s="21"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="58" t="s">
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="53" t="s">
+      <c r="D61" s="71"/>
+      <c r="E61" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F61" s="53"/>
+      <c r="F61" s="76"/>
       <c r="G61" s="21">
         <v>2</v>
       </c>
@@ -8020,16 +8018,16 @@
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="58" t="s">
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D62" s="62"/>
-      <c r="E62" s="53" t="s">
+      <c r="D62" s="71"/>
+      <c r="E62" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="76"/>
       <c r="G62" s="21">
         <v>2</v>
       </c>
@@ -8119,16 +8117,16 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="58" t="s">
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="53" t="s">
+      <c r="D63" s="71"/>
+      <c r="E63" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F63" s="53"/>
+      <c r="F63" s="76"/>
       <c r="G63" s="21">
         <v>4</v>
       </c>
@@ -8218,16 +8216,16 @@
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="58" t="s">
+      <c r="A64" s="82"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="53" t="s">
+      <c r="D64" s="71"/>
+      <c r="E64" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="53"/>
+      <c r="F64" s="76"/>
       <c r="G64" s="21">
         <v>4</v>
       </c>
@@ -8317,12 +8315,12 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="104"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
       <c r="I65" s="52"/>
@@ -8355,16 +8353,16 @@
       <c r="AI65" s="21"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="58" t="s">
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="62"/>
-      <c r="E66" s="53" t="s">
+      <c r="D66" s="71"/>
+      <c r="E66" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F66" s="53"/>
+      <c r="F66" s="76"/>
       <c r="G66" s="21">
         <v>4</v>
       </c>
@@ -8454,12 +8452,12 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="55"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="70"/>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
       <c r="I67" s="52"/>
@@ -8493,16 +8491,16 @@
       <c r="AI67" s="21"/>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="58" t="s">
+      <c r="A68" s="82"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="D68" s="62"/>
-      <c r="E68" s="53" t="s">
+      <c r="D68" s="71"/>
+      <c r="E68" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F68" s="53"/>
+      <c r="F68" s="76"/>
       <c r="G68" s="21">
         <v>2</v>
       </c>
@@ -8592,16 +8590,16 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="58" t="s">
+      <c r="A69" s="82"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="53" t="s">
+      <c r="D69" s="71"/>
+      <c r="E69" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="F69" s="53"/>
+      <c r="F69" s="76"/>
       <c r="G69" s="21">
         <v>4</v>
       </c>
@@ -8691,12 +8689,12 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="55"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="73"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="52"/>
@@ -8730,16 +8728,16 @@
       <c r="AI70" s="21"/>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="58" t="s">
+      <c r="A71" s="82"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="53" t="s">
+      <c r="D71" s="71"/>
+      <c r="E71" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F71" s="53"/>
+      <c r="F71" s="76"/>
       <c r="G71" s="21">
         <v>2</v>
       </c>
@@ -8829,16 +8827,16 @@
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="58" t="s">
+      <c r="A72" s="82"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="53" t="s">
+      <c r="D72" s="71"/>
+      <c r="E72" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F72" s="53"/>
+      <c r="F72" s="76"/>
       <c r="G72" s="21">
         <v>2</v>
       </c>
@@ -8928,12 +8926,12 @@
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="105"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="55"/>
+      <c r="A73" s="82"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70"/>
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="52"/>
@@ -8967,16 +8965,16 @@
       <c r="AI73" s="21"/>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="58" t="s">
+      <c r="A74" s="82"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="53" t="s">
+      <c r="D74" s="71"/>
+      <c r="E74" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="53"/>
+      <c r="F74" s="76"/>
       <c r="G74" s="21">
         <v>2</v>
       </c>
@@ -9066,16 +9064,16 @@
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="58" t="s">
+      <c r="A75" s="82"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="53" t="s">
+      <c r="D75" s="71"/>
+      <c r="E75" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F75" s="53"/>
+      <c r="F75" s="76"/>
       <c r="G75" s="21">
         <v>2</v>
       </c>
@@ -9118,7 +9116,7 @@
       <c r="T75" s="21">
         <v>2</v>
       </c>
-      <c r="U75" s="95">
+      <c r="U75" s="57">
         <v>0</v>
       </c>
       <c r="V75" s="21">
@@ -9165,16 +9163,16 @@
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="58" t="s">
+      <c r="A76" s="82"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="53" t="s">
+      <c r="D76" s="71"/>
+      <c r="E76" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F76" s="53"/>
+      <c r="F76" s="76"/>
       <c r="G76" s="21">
         <v>4</v>
       </c>
@@ -9264,12 +9262,12 @@
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="105"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
       <c r="G77" s="21"/>
       <c r="H77" s="21"/>
       <c r="I77" s="52"/>
@@ -9303,16 +9301,16 @@
       <c r="AI77" s="21"/>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="58" t="s">
+      <c r="A78" s="82"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="53" t="s">
+      <c r="D78" s="71"/>
+      <c r="E78" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F78" s="53"/>
+      <c r="F78" s="76"/>
       <c r="G78" s="21">
         <v>4</v>
       </c>
@@ -9402,12 +9400,12 @@
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="105"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
+      <c r="A79" s="82"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="74"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
       <c r="G79" s="21"/>
       <c r="H79" s="21"/>
       <c r="I79" s="52"/>
@@ -9441,16 +9439,16 @@
       <c r="AI79" s="21"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="58" t="s">
+      <c r="A80" s="82"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="53" t="s">
+      <c r="D80" s="71"/>
+      <c r="E80" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F80" s="53"/>
+      <c r="F80" s="76"/>
       <c r="G80" s="21">
         <v>4</v>
       </c>
@@ -9540,12 +9538,12 @@
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="99"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
       <c r="G81" s="21"/>
       <c r="H81" s="21"/>
       <c r="I81" s="52"/>
@@ -9579,16 +9577,16 @@
       <c r="AI81" s="21"/>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="58" t="s">
+      <c r="A82" s="82"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="53" t="s">
+      <c r="D82" s="71"/>
+      <c r="E82" s="76" t="s">
         <v>177</v>
       </c>
-      <c r="F82" s="53"/>
+      <c r="F82" s="76"/>
       <c r="G82" s="21">
         <v>2</v>
       </c>
@@ -9678,16 +9676,16 @@
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A83" s="57"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="58" t="s">
+      <c r="A83" s="82"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="53" t="s">
+      <c r="D83" s="71"/>
+      <c r="E83" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F83" s="53"/>
+      <c r="F83" s="76"/>
       <c r="G83" s="21">
         <v>2</v>
       </c>
@@ -9777,16 +9775,16 @@
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="58" t="s">
+      <c r="A84" s="82"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="53" t="s">
+      <c r="D84" s="71"/>
+      <c r="E84" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F84" s="53"/>
+      <c r="F84" s="76"/>
       <c r="G84" s="21">
         <v>1</v>
       </c>
@@ -9858,16 +9856,16 @@
       <c r="AI84" s="21"/>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="58" t="s">
+      <c r="A85" s="82"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="53" t="s">
+      <c r="D85" s="71"/>
+      <c r="E85" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F85" s="53"/>
+      <c r="F85" s="76"/>
       <c r="G85" s="21">
         <v>1</v>
       </c>
@@ -9943,16 +9941,16 @@
       <c r="AI85" s="21"/>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="56" t="s">
+      <c r="A86" s="82"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="64" t="s">
+      <c r="D86" s="71"/>
+      <c r="E86" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F86" s="64"/>
+      <c r="F86" s="83"/>
       <c r="G86" s="21">
         <v>6</v>
       </c>
@@ -10042,12 +10040,12 @@
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="53"/>
-      <c r="F87" s="53"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
       <c r="G87" s="21"/>
       <c r="H87" s="21"/>
       <c r="I87" s="52"/>
@@ -10081,18 +10079,18 @@
       <c r="AI87" s="21"/>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57" t="s">
+      <c r="A88" s="82"/>
+      <c r="B88" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="53" t="s">
+      <c r="D88" s="71"/>
+      <c r="E88" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F88" s="53"/>
+      <c r="F88" s="76"/>
       <c r="G88" s="21">
         <v>1</v>
       </c>
@@ -10182,16 +10180,16 @@
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="56" t="s">
+      <c r="A89" s="82"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="53" t="s">
+      <c r="D89" s="71"/>
+      <c r="E89" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F89" s="53"/>
+      <c r="F89" s="76"/>
       <c r="G89" s="21">
         <v>1</v>
       </c>
@@ -10281,16 +10279,16 @@
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="56" t="s">
+      <c r="A90" s="82"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="62"/>
-      <c r="E90" s="53" t="s">
+      <c r="D90" s="71"/>
+      <c r="E90" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F90" s="53"/>
+      <c r="F90" s="76"/>
       <c r="G90" s="21">
         <v>1</v>
       </c>
@@ -10380,16 +10378,16 @@
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="56" t="s">
+      <c r="A91" s="82"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="62"/>
-      <c r="E91" s="53" t="s">
+      <c r="D91" s="71"/>
+      <c r="E91" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F91" s="53"/>
+      <c r="F91" s="76"/>
       <c r="G91" s="21">
         <v>1</v>
       </c>
@@ -10479,16 +10477,16 @@
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="56" t="s">
+      <c r="A92" s="82"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="53" t="s">
+      <c r="D92" s="71"/>
+      <c r="E92" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F92" s="53"/>
+      <c r="F92" s="76"/>
       <c r="G92" s="21">
         <v>1</v>
       </c>
@@ -10578,16 +10576,16 @@
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="62" t="s">
+      <c r="A93" s="82"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="102"/>
-      <c r="E93" s="53" t="s">
+      <c r="D93" s="72"/>
+      <c r="E93" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F93" s="53"/>
+      <c r="F93" s="76"/>
       <c r="G93" s="21">
         <v>1</v>
       </c>
@@ -10667,16 +10665,16 @@
       <c r="AI93" s="21"/>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="62" t="s">
+      <c r="A94" s="82"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="53" t="s">
+      <c r="D94" s="72"/>
+      <c r="E94" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F94" s="53"/>
+      <c r="F94" s="76"/>
       <c r="G94" s="21">
         <v>1</v>
       </c>
@@ -10756,16 +10754,16 @@
       <c r="AI94" s="21"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A95" s="57"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="62" t="s">
+      <c r="A95" s="82"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="D95" s="102"/>
-      <c r="E95" s="53" t="s">
+      <c r="D95" s="72"/>
+      <c r="E95" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F95" s="53"/>
+      <c r="F95" s="76"/>
       <c r="G95" s="21">
         <v>1</v>
       </c>
@@ -10845,16 +10843,16 @@
       <c r="AI95" s="21"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A96" s="57"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="62" t="s">
+      <c r="A96" s="82"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D96" s="102"/>
-      <c r="E96" s="53" t="s">
+      <c r="D96" s="72"/>
+      <c r="E96" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F96" s="53"/>
+      <c r="F96" s="76"/>
       <c r="G96" s="21">
         <v>1</v>
       </c>
@@ -10944,16 +10942,16 @@
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A97" s="57"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="62" t="s">
+      <c r="A97" s="82"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="102"/>
-      <c r="E97" s="53" t="s">
+      <c r="D97" s="72"/>
+      <c r="E97" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F97" s="53"/>
+      <c r="F97" s="76"/>
       <c r="G97" s="21">
         <v>1</v>
       </c>
@@ -11043,16 +11041,16 @@
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="62" t="s">
+      <c r="A98" s="82"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="102"/>
-      <c r="E98" s="53" t="s">
+      <c r="D98" s="72"/>
+      <c r="E98" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F98" s="53"/>
+      <c r="F98" s="76"/>
       <c r="G98" s="21">
         <v>1</v>
       </c>
@@ -11132,16 +11130,16 @@
       <c r="AI98" s="21"/>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="62" t="s">
+      <c r="A99" s="82"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="102"/>
-      <c r="E99" s="53" t="s">
+      <c r="D99" s="72"/>
+      <c r="E99" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F99" s="53"/>
+      <c r="F99" s="76"/>
       <c r="G99" s="21">
         <v>1</v>
       </c>
@@ -11231,18 +11229,18 @@
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57" t="s">
+      <c r="A100" s="82"/>
+      <c r="B100" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="62"/>
-      <c r="E100" s="53" t="s">
+      <c r="D100" s="71"/>
+      <c r="E100" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F100" s="53"/>
+      <c r="F100" s="76"/>
       <c r="G100" s="21">
         <v>1</v>
       </c>
@@ -11332,16 +11330,16 @@
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="56" t="s">
+      <c r="A101" s="82"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D101" s="62"/>
-      <c r="E101" s="53" t="s">
+      <c r="D101" s="71"/>
+      <c r="E101" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F101" s="53"/>
+      <c r="F101" s="76"/>
       <c r="G101" s="21">
         <v>1</v>
       </c>
@@ -11431,16 +11429,16 @@
       </c>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="56" t="s">
+      <c r="A102" s="82"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="D102" s="62"/>
-      <c r="E102" s="53" t="s">
+      <c r="D102" s="71"/>
+      <c r="E102" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F102" s="53"/>
+      <c r="F102" s="76"/>
       <c r="G102" s="21">
         <v>1</v>
       </c>
@@ -11474,31 +11472,31 @@
       <c r="Q102" s="21">
         <v>1</v>
       </c>
-      <c r="R102" s="96">
-        <v>1</v>
-      </c>
-      <c r="S102" s="96">
-        <v>1</v>
-      </c>
-      <c r="T102" s="96">
-        <v>1</v>
-      </c>
-      <c r="U102" s="96">
-        <v>1</v>
-      </c>
-      <c r="V102" s="96">
-        <v>1</v>
-      </c>
-      <c r="W102" s="96">
-        <v>1</v>
-      </c>
-      <c r="X102" s="96">
-        <v>1</v>
-      </c>
-      <c r="Y102" s="96">
-        <v>1</v>
-      </c>
-      <c r="Z102" s="96">
+      <c r="R102" s="58">
+        <v>1</v>
+      </c>
+      <c r="S102" s="58">
+        <v>1</v>
+      </c>
+      <c r="T102" s="58">
+        <v>1</v>
+      </c>
+      <c r="U102" s="58">
+        <v>1</v>
+      </c>
+      <c r="V102" s="58">
+        <v>1</v>
+      </c>
+      <c r="W102" s="58">
+        <v>1</v>
+      </c>
+      <c r="X102" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="58">
         <v>1</v>
       </c>
       <c r="AA102" s="1">
@@ -11510,16 +11508,16 @@
       <c r="AC102" s="1">
         <v>1</v>
       </c>
-      <c r="AD102" s="96">
-        <v>1</v>
-      </c>
-      <c r="AE102" s="97">
-        <v>0</v>
-      </c>
-      <c r="AF102" s="96">
-        <v>0</v>
-      </c>
-      <c r="AG102" s="96">
+      <c r="AD102" s="58">
+        <v>1</v>
+      </c>
+      <c r="AE102" s="59">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="58">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="58">
         <v>0</v>
       </c>
       <c r="AH102" s="21">
@@ -11530,16 +11528,16 @@
       </c>
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="56" t="s">
+      <c r="A103" s="82"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="53" t="s">
+      <c r="D103" s="71"/>
+      <c r="E103" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F103" s="53"/>
+      <c r="F103" s="76"/>
       <c r="G103" s="21">
         <v>1</v>
       </c>
@@ -11629,16 +11627,16 @@
       </c>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A104" s="57"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="56" t="s">
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="D104" s="62"/>
-      <c r="E104" s="53" t="s">
+      <c r="D104" s="71"/>
+      <c r="E104" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F104" s="53"/>
+      <c r="F104" s="76"/>
       <c r="G104" s="21">
         <v>2</v>
       </c>
@@ -11722,12 +11720,12 @@
       <c r="AI104" s="21"/>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="62"/>
-      <c r="D105" s="102"/>
-      <c r="E105" s="53"/>
-      <c r="F105" s="53"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
       <c r="G105" s="21"/>
       <c r="H105" s="21"/>
       <c r="I105" s="52"/>
@@ -11761,16 +11759,16 @@
       <c r="AI105" s="21"/>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="56" t="s">
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="62"/>
-      <c r="E106" s="53" t="s">
+      <c r="D106" s="71"/>
+      <c r="E106" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F106" s="53"/>
+      <c r="F106" s="76"/>
       <c r="G106" s="21">
         <v>1</v>
       </c>
@@ -11854,12 +11852,12 @@
       <c r="AI106" s="21"/>
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="53"/>
-      <c r="F107" s="53"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="69"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
       <c r="G107" s="21"/>
       <c r="H107" s="21"/>
       <c r="I107" s="52"/>
@@ -11891,16 +11889,16 @@
       <c r="AI107" s="21"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="56" t="s">
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="62"/>
-      <c r="E108" s="53" t="s">
+      <c r="D108" s="71"/>
+      <c r="E108" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F108" s="53"/>
+      <c r="F108" s="76"/>
       <c r="G108" s="21">
         <v>1</v>
       </c>
@@ -11986,16 +11984,16 @@
       <c r="AI108" s="21"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="62" t="s">
+      <c r="A109" s="82"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="D109" s="102"/>
-      <c r="E109" s="53" t="s">
+      <c r="D109" s="72"/>
+      <c r="E109" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F109" s="53"/>
+      <c r="F109" s="76"/>
       <c r="G109" s="21">
         <v>2</v>
       </c>
@@ -12081,12 +12079,12 @@
       <c r="AI109" s="21"/>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="55"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="70"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="70"/>
       <c r="G110" s="21"/>
       <c r="H110" s="21"/>
       <c r="I110" s="52"/>
@@ -12120,16 +12118,16 @@
       <c r="AI110" s="21"/>
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A111" s="57"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="62" t="s">
+      <c r="A111" s="82"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="D111" s="102"/>
-      <c r="E111" s="53" t="s">
+      <c r="D111" s="72"/>
+      <c r="E111" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F111" s="53"/>
+      <c r="F111" s="76"/>
       <c r="G111" s="21">
         <v>1</v>
       </c>
@@ -12219,12 +12217,12 @@
       </c>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="55"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="70"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="70"/>
       <c r="G112" s="21"/>
       <c r="H112" s="21"/>
       <c r="I112" s="52"/>
@@ -12244,11 +12242,11 @@
       <c r="W112" s="21"/>
       <c r="X112" s="21"/>
       <c r="Y112" s="21"/>
-      <c r="Z112" s="96"/>
+      <c r="Z112" s="58"/>
       <c r="AA112" s="21"/>
       <c r="AB112" s="21"/>
-      <c r="AC112" s="96"/>
-      <c r="AD112" s="96"/>
+      <c r="AC112" s="58"/>
+      <c r="AD112" s="58"/>
       <c r="AE112" s="21"/>
       <c r="AF112" s="21"/>
       <c r="AG112" s="24">
@@ -12258,16 +12256,16 @@
       <c r="AI112" s="21"/>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A113" s="57"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="62" t="s">
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="D113" s="102"/>
-      <c r="E113" s="53" t="s">
+      <c r="D113" s="72"/>
+      <c r="E113" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F113" s="53"/>
+      <c r="F113" s="76"/>
       <c r="G113" s="21">
         <v>1</v>
       </c>
@@ -12325,22 +12323,22 @@
       <c r="Y113" s="21">
         <v>1</v>
       </c>
-      <c r="Z113" s="96">
-        <v>1</v>
-      </c>
-      <c r="AA113" s="96">
-        <v>1</v>
-      </c>
-      <c r="AB113" s="96">
-        <v>1</v>
-      </c>
-      <c r="AC113" s="96">
-        <v>1</v>
-      </c>
-      <c r="AD113" s="96">
-        <v>1</v>
-      </c>
-      <c r="AE113" s="96">
+      <c r="Z113" s="58">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="58">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="58">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="58">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="58">
+        <v>1</v>
+      </c>
+      <c r="AE113" s="58">
         <v>1</v>
       </c>
       <c r="AF113" s="21">
@@ -12357,16 +12355,16 @@
       </c>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="62" t="s">
+      <c r="A114" s="82"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="102"/>
-      <c r="E114" s="53" t="s">
+      <c r="D114" s="72"/>
+      <c r="E114" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F114" s="53"/>
+      <c r="F114" s="76"/>
       <c r="G114" s="21">
         <v>2</v>
       </c>
@@ -12456,16 +12454,16 @@
       </c>
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A115" s="57"/>
-      <c r="B115" s="57"/>
-      <c r="C115" s="62" t="s">
+      <c r="A115" s="82"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D115" s="102"/>
-      <c r="E115" s="53" t="s">
+      <c r="D115" s="72"/>
+      <c r="E115" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F115" s="53"/>
+      <c r="F115" s="76"/>
       <c r="G115" s="21">
         <v>2</v>
       </c>
@@ -12555,18 +12553,18 @@
       </c>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A116" s="57"/>
-      <c r="B116" s="57" t="s">
+      <c r="A116" s="82"/>
+      <c r="B116" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="56" t="s">
+      <c r="C116" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D116" s="62"/>
-      <c r="E116" s="53" t="s">
+      <c r="D116" s="71"/>
+      <c r="E116" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F116" s="53"/>
+      <c r="F116" s="76"/>
       <c r="G116" s="21">
         <v>1</v>
       </c>
@@ -12656,16 +12654,16 @@
       </c>
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A117" s="57"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="56" t="s">
+      <c r="A117" s="82"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="D117" s="62"/>
-      <c r="E117" s="53" t="s">
+      <c r="D117" s="71"/>
+      <c r="E117" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F117" s="53"/>
+      <c r="F117" s="76"/>
       <c r="G117" s="21">
         <v>1</v>
       </c>
@@ -12755,16 +12753,16 @@
       </c>
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A118" s="57"/>
-      <c r="B118" s="57"/>
-      <c r="C118" s="56" t="s">
+      <c r="A118" s="82"/>
+      <c r="B118" s="82"/>
+      <c r="C118" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="D118" s="62"/>
-      <c r="E118" s="53" t="s">
+      <c r="D118" s="71"/>
+      <c r="E118" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F118" s="53"/>
+      <c r="F118" s="76"/>
       <c r="G118" s="21">
         <v>2</v>
       </c>
@@ -12854,16 +12852,16 @@
       </c>
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A119" s="57"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="56" t="s">
+      <c r="A119" s="82"/>
+      <c r="B119" s="82"/>
+      <c r="C119" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="D119" s="62"/>
-      <c r="E119" s="53" t="s">
+      <c r="D119" s="71"/>
+      <c r="E119" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F119" s="53"/>
+      <c r="F119" s="76"/>
       <c r="G119" s="21">
         <v>2</v>
       </c>
@@ -12953,12 +12951,12 @@
       </c>
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A120" s="57"/>
-      <c r="B120" s="57"/>
-      <c r="C120" s="54"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="55"/>
+      <c r="A120" s="82"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="70"/>
       <c r="G120" s="21"/>
       <c r="H120" s="21"/>
       <c r="I120" s="52"/>
@@ -12992,16 +12990,16 @@
       </c>
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A121" s="57"/>
-      <c r="B121" s="57"/>
-      <c r="C121" s="56" t="s">
+      <c r="A121" s="82"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="D121" s="62"/>
-      <c r="E121" s="53" t="s">
+      <c r="D121" s="71"/>
+      <c r="E121" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F121" s="53"/>
+      <c r="F121" s="76"/>
       <c r="G121" s="21">
         <v>2</v>
       </c>
@@ -13091,16 +13089,16 @@
       </c>
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A122" s="57"/>
-      <c r="B122" s="57"/>
-      <c r="C122" s="62" t="s">
+      <c r="A122" s="82"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="102"/>
-      <c r="E122" s="53" t="s">
+      <c r="D122" s="72"/>
+      <c r="E122" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F122" s="53"/>
+      <c r="F122" s="76"/>
       <c r="G122" s="21">
         <v>2</v>
       </c>
@@ -13190,16 +13188,16 @@
       </c>
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A123" s="57"/>
-      <c r="B123" s="57"/>
-      <c r="C123" s="62" t="s">
+      <c r="A123" s="82"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D123" s="102"/>
-      <c r="E123" s="53" t="s">
+      <c r="D123" s="72"/>
+      <c r="E123" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F123" s="53"/>
+      <c r="F123" s="76"/>
       <c r="G123" s="21">
         <v>2</v>
       </c>
@@ -13289,16 +13287,16 @@
       </c>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A124" s="57"/>
-      <c r="B124" s="57"/>
-      <c r="C124" s="62" t="s">
+      <c r="A124" s="82"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="D124" s="102"/>
-      <c r="E124" s="53" t="s">
+      <c r="D124" s="72"/>
+      <c r="E124" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F124" s="53"/>
+      <c r="F124" s="76"/>
       <c r="G124" s="21">
         <v>2</v>
       </c>
@@ -13388,12 +13386,12 @@
       </c>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A125" s="57"/>
-      <c r="B125" s="57"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="55"/>
+      <c r="A125" s="82"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="69"/>
+      <c r="D125" s="70"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="70"/>
       <c r="G125" s="21"/>
       <c r="H125" s="21"/>
       <c r="I125" s="52"/>
@@ -13427,16 +13425,16 @@
       </c>
     </row>
     <row r="126" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A126" s="57"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="62" t="s">
+      <c r="A126" s="82"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="D126" s="102"/>
-      <c r="E126" s="53" t="s">
+      <c r="D126" s="72"/>
+      <c r="E126" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F126" s="53"/>
+      <c r="F126" s="76"/>
       <c r="G126" s="21">
         <v>2</v>
       </c>
@@ -13526,16 +13524,16 @@
       </c>
     </row>
     <row r="127" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A127" s="57"/>
-      <c r="B127" s="57"/>
-      <c r="C127" s="62" t="s">
+      <c r="A127" s="82"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D127" s="102"/>
-      <c r="E127" s="53" t="s">
+      <c r="D127" s="72"/>
+      <c r="E127" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F127" s="53"/>
+      <c r="F127" s="76"/>
       <c r="G127" s="21">
         <v>2</v>
       </c>
@@ -13625,16 +13623,16 @@
       </c>
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A128" s="57"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="62" t="s">
+      <c r="A128" s="82"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D128" s="102"/>
-      <c r="E128" s="53" t="s">
+      <c r="D128" s="72"/>
+      <c r="E128" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F128" s="53"/>
+      <c r="F128" s="76"/>
       <c r="G128" s="21">
         <v>2</v>
       </c>
@@ -13724,12 +13722,12 @@
       </c>
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A129" s="57"/>
-      <c r="B129" s="57"/>
-      <c r="C129" s="54"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="55"/>
+      <c r="A129" s="82"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="69"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="69"/>
+      <c r="F129" s="70"/>
       <c r="G129" s="21"/>
       <c r="H129" s="21"/>
       <c r="I129" s="52"/>
@@ -13763,16 +13761,16 @@
       </c>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A130" s="57"/>
-      <c r="B130" s="57"/>
-      <c r="C130" s="62" t="s">
+      <c r="A130" s="82"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="D130" s="102"/>
-      <c r="E130" s="53" t="s">
+      <c r="D130" s="72"/>
+      <c r="E130" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F130" s="53"/>
+      <c r="F130" s="76"/>
       <c r="G130" s="21">
         <v>2</v>
       </c>
@@ -13862,18 +13860,18 @@
       </c>
     </row>
     <row r="131" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A131" s="57"/>
-      <c r="B131" s="57" t="s">
+      <c r="A131" s="82"/>
+      <c r="B131" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="C131" s="56" t="s">
+      <c r="C131" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D131" s="62"/>
-      <c r="E131" s="64" t="s">
+      <c r="D131" s="71"/>
+      <c r="E131" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F131" s="64"/>
+      <c r="F131" s="83"/>
       <c r="G131" s="21">
         <v>5</v>
       </c>
@@ -13963,16 +13961,16 @@
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="56" t="s">
+      <c r="A132" s="82"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="62"/>
-      <c r="E132" s="64" t="s">
+      <c r="D132" s="71"/>
+      <c r="E132" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="64"/>
+      <c r="F132" s="83"/>
       <c r="G132" s="21">
         <v>5</v>
       </c>
@@ -14062,22 +14060,22 @@
       </c>
     </row>
     <row r="133" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="57"/>
-      <c r="B133" s="65" t="s">
+      <c r="A133" s="82"/>
+      <c r="B133" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="69" t="s">
+      <c r="C133" s="91"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F133" s="69"/>
-      <c r="G133" s="69">
+      <c r="F133" s="75"/>
+      <c r="G133" s="75">
         <f>SUM(H16:H132)</f>
         <v>175.5</v>
       </c>
-      <c r="H133" s="69"/>
-      <c r="I133" s="108">
+      <c r="H133" s="75"/>
+      <c r="I133" s="62">
         <f>SUM(I16:I132)</f>
         <v>173</v>
       </c>
@@ -14187,19 +14185,19 @@
       </c>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A134" s="57"/>
-      <c r="B134" s="67"/>
-      <c r="C134" s="68"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="69" t="s">
+      <c r="A134" s="82"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="93"/>
+      <c r="D134" s="93"/>
+      <c r="E134" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="F134" s="69"/>
-      <c r="G134" s="69">
+      <c r="F134" s="75"/>
+      <c r="G134" s="75">
         <f>SUM(G16:G132)</f>
         <v>180</v>
       </c>
-      <c r="H134" s="69"/>
+      <c r="H134" s="75"/>
       <c r="I134" s="52">
         <f>SUM(I16:I132)</f>
         <v>173</v>
@@ -14221,47 +14219,47 @@
         <v>154</v>
       </c>
       <c r="N134" s="21">
-        <f>SUM(N16:N132)</f>
+        <f t="shared" ref="N134:X134" si="2">SUM(N16:N132)</f>
         <v>148</v>
       </c>
       <c r="O134" s="21">
-        <f>SUM(O16:O132)</f>
+        <f t="shared" si="2"/>
         <v>137.5</v>
       </c>
       <c r="P134" s="21">
-        <f>SUM(P16:P132)</f>
+        <f t="shared" si="2"/>
         <v>132.5</v>
       </c>
       <c r="Q134" s="21">
-        <f>SUM(Q16:Q132)</f>
+        <f t="shared" si="2"/>
         <v>132.5</v>
       </c>
       <c r="R134" s="21">
-        <f>SUM(R16:R132)</f>
+        <f t="shared" si="2"/>
         <v>126.5</v>
       </c>
       <c r="S134" s="21">
-        <f>SUM(S16:S132)</f>
+        <f t="shared" si="2"/>
         <v>114.5</v>
       </c>
       <c r="T134" s="21">
-        <f>SUM(T16:T132)</f>
+        <f t="shared" si="2"/>
         <v>110.5</v>
       </c>
       <c r="U134" s="21">
-        <f>SUM(U16:U132)</f>
+        <f t="shared" si="2"/>
         <v>101.5</v>
       </c>
       <c r="V134" s="21">
-        <f>SUM(V16:V132)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="W134" s="21">
-        <f>SUM(W16:W132)</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="X134" s="21">
-        <f>SUM(X16:X132)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="Y134" s="21">
@@ -14273,69 +14271,260 @@
         <v>69</v>
       </c>
       <c r="AA134" s="21">
-        <f>SUM(AA16:AA132)</f>
+        <f t="shared" ref="AA134:AF134" si="3">SUM(AA16:AA132)</f>
         <v>62</v>
       </c>
       <c r="AB134" s="21">
-        <f>SUM(AB16:AB132)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="AC134" s="21">
-        <f>SUM(AC16:AC132)</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="AD134" s="21">
-        <f>SUM(AD16:AD132)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="AE134" s="21">
-        <f>SUM(AE16:AE132)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="AF134" s="21">
-        <f>SUM(AF16:AF132)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="AG134" s="21">
-        <f t="shared" ref="AG134:AI134" si="2">SUM(AG16:AG132)</f>
+        <f t="shared" ref="AG134:AI134" si="4">SUM(AG16:AG132)</f>
         <v>34</v>
       </c>
       <c r="AH134" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="AI134" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
     </row>
     <row r="135" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="E135" s="94"/>
-      <c r="F135" s="94"/>
-      <c r="G135" s="94"/>
-      <c r="H135" s="94"/>
+      <c r="E135" s="56"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="B133:D134"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="B116:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E116:F116"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B19:B34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A16:A134"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="B100:B115"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="B51:B87"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:F120"/>
+    <mergeCell ref="E119:F119"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E115:F115"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E126:F126"/>
     <mergeCell ref="G133:H133"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="E26:F26"/>
@@ -14360,218 +14549,27 @@
     <mergeCell ref="E123:F123"/>
     <mergeCell ref="E122:F122"/>
     <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="E115:F115"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="E120:F120"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="B51:B87"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A16:A134"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="B100:B115"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="B133:D134"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="B116:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E116:F116"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E119:F119"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B19:B34"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C125:D125"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -14583,8 +14581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG131"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A43" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14604,10 +14602,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
@@ -14616,13 +14614,13 @@
       <c r="F1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:59" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="70"/>
+      <c r="A2" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
@@ -14631,13 +14629,13 @@
       <c r="F2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="89"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:59" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="70"/>
+      <c r="A3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="89"/>
       <c r="C3" s="4">
         <v>45768</v>
       </c>
@@ -14646,13 +14644,13 @@
       <c r="F3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70"/>
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89"/>
       <c r="C4" s="4">
         <v>45792</v>
       </c>
@@ -14661,7 +14659,7 @@
       <c r="F4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="89"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -14672,35 +14670,35 @@
       <c r="F5" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="55"/>
     </row>
     <row r="6" spans="1:59" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="107"/>
     </row>
     <row r="7" spans="1:59" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="112" t="s">
+      <c r="D7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="114">
+      <c r="B8" s="66">
         <v>1</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -14717,7 +14715,7 @@
     </row>
     <row r="9" spans="1:59" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="114">
+      <c r="B9" s="66">
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
@@ -14734,7 +14732,7 @@
     </row>
     <row r="10" spans="1:59" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="114">
+      <c r="B10" s="66">
         <v>3</v>
       </c>
       <c r="C10" s="21" t="s">
@@ -14751,7 +14749,7 @@
     </row>
     <row r="11" spans="1:59" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="114">
+      <c r="B11" s="66">
         <v>4</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -14768,7 +14766,7 @@
     </row>
     <row r="12" spans="1:59" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="114">
+      <c r="B12" s="66">
         <v>5</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -14785,15 +14783,15 @@
     </row>
     <row r="13" spans="1:59" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117">
+      <c r="C13" s="110"/>
+      <c r="D13" s="67">
         <f>SUM(D8:D12)</f>
         <v>234</v>
       </c>
-      <c r="E13" s="118">
+      <c r="E13" s="68">
         <f>SUM(E8:E12)</f>
         <v>245</v>
       </c>
@@ -14805,14 +14803,14 @@
       <c r="B15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75" t="s">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="75"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="19" t="s">
         <v>43</v>
       </c>
@@ -14946,18 +14944,18 @@
       <c r="BG15" s="2"/>
     </row>
     <row r="16" spans="1:59" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="53" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="21">
         <v>5</v>
       </c>
@@ -15041,16 +15039,16 @@
       </c>
     </row>
     <row r="17" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="82"/>
+      <c r="B17" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="53" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="53"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="21">
         <v>4</v>
       </c>
@@ -15134,12 +15132,12 @@
       </c>
     </row>
     <row r="18" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
@@ -15170,16 +15168,16 @@
       <c r="AG18" s="21"/>
     </row>
     <row r="19" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="57"/>
-      <c r="B19" s="56" t="s">
+      <c r="A19" s="82"/>
+      <c r="B19" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="53" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="21">
         <v>4</v>
       </c>
@@ -15263,18 +15261,18 @@
       </c>
     </row>
     <row r="20" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53" t="s">
+      <c r="D20" s="80"/>
+      <c r="E20" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="21">
         <v>1</v>
       </c>
@@ -15358,16 +15356,16 @@
       </c>
     </row>
     <row r="21" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53" t="s">
+      <c r="D21" s="80"/>
+      <c r="E21" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="21">
         <v>2</v>
       </c>
@@ -15451,16 +15449,16 @@
       </c>
     </row>
     <row r="22" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="56" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="53" t="s">
+      <c r="D22" s="80"/>
+      <c r="E22" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="53"/>
+      <c r="F22" s="76"/>
       <c r="G22" s="21">
         <v>1</v>
       </c>
@@ -15544,12 +15542,12 @@
       </c>
     </row>
     <row r="23" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -15581,16 +15579,16 @@
       <c r="AG23" s="21"/>
     </row>
     <row r="24" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="56" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="80"/>
+      <c r="E24" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="53"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="21">
         <v>2</v>
       </c>
@@ -15674,16 +15672,16 @@
       </c>
     </row>
     <row r="25" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="53" t="s">
+      <c r="D25" s="80"/>
+      <c r="E25" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="53"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="21">
         <v>2</v>
       </c>
@@ -15767,16 +15765,16 @@
       </c>
     </row>
     <row r="26" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="56" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="53" t="s">
+      <c r="D26" s="80"/>
+      <c r="E26" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="53"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="21">
         <v>1</v>
       </c>
@@ -15860,12 +15858,12 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -15897,16 +15895,16 @@
       <c r="AG27" s="21"/>
     </row>
     <row r="28" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="76" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="54" t="s">
+      <c r="D28" s="102"/>
+      <c r="E28" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="21">
         <v>2</v>
       </c>
@@ -15952,16 +15950,16 @@
       <c r="AG28" s="21"/>
     </row>
     <row r="29" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="76" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="54" t="s">
+      <c r="D29" s="102"/>
+      <c r="E29" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="55"/>
+      <c r="F29" s="70"/>
       <c r="G29" s="21">
         <v>2</v>
       </c>
@@ -16009,12 +16007,12 @@
       <c r="AG29" s="21"/>
     </row>
     <row r="30" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -16045,16 +16043,16 @@
       <c r="AG30" s="21"/>
     </row>
     <row r="31" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56" t="s">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="80"/>
+      <c r="E31" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="55"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="21">
         <v>2</v>
       </c>
@@ -16100,16 +16098,16 @@
       <c r="AG31" s="21"/>
     </row>
     <row r="32" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="76" t="s">
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="102"/>
+      <c r="E32" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="55"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="21">
         <v>2</v>
       </c>
@@ -16159,16 +16157,16 @@
       <c r="AG32" s="21"/>
     </row>
     <row r="33" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="56" t="s">
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="53" t="s">
+      <c r="D33" s="80"/>
+      <c r="E33" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="53"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="21">
         <v>3</v>
       </c>
@@ -16252,18 +16250,18 @@
       </c>
     </row>
     <row r="34" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57" t="s">
+      <c r="A34" s="82"/>
+      <c r="B34" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="53" t="s">
+      <c r="D34" s="80"/>
+      <c r="E34" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F34" s="53"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="21">
         <v>1</v>
       </c>
@@ -16347,16 +16345,16 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="56" t="s">
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="53" t="s">
+      <c r="D35" s="80"/>
+      <c r="E35" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F35" s="53"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="21">
         <v>1</v>
       </c>
@@ -16440,16 +16438,16 @@
       </c>
     </row>
     <row r="36" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="56" t="s">
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53" t="s">
+      <c r="D36" s="80"/>
+      <c r="E36" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="21">
         <v>1</v>
       </c>
@@ -16501,16 +16499,16 @@
       <c r="AG36" s="21"/>
     </row>
     <row r="37" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="56" t="s">
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53" t="s">
+      <c r="D37" s="80"/>
+      <c r="E37" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="21">
         <v>1</v>
       </c>
@@ -16594,16 +16592,16 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="56" t="s">
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="53" t="s">
+      <c r="D38" s="80"/>
+      <c r="E38" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F38" s="53"/>
+      <c r="F38" s="76"/>
       <c r="G38" s="21">
         <v>2</v>
       </c>
@@ -16687,16 +16685,16 @@
       </c>
     </row>
     <row r="39" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="56" t="s">
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="54" t="s">
+      <c r="D39" s="80"/>
+      <c r="E39" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="55"/>
+      <c r="F39" s="70"/>
       <c r="G39" s="21">
         <v>1</v>
       </c>
@@ -16780,16 +16778,16 @@
       </c>
     </row>
     <row r="40" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="76" t="s">
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="101" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="77"/>
-      <c r="E40" s="54" t="s">
+      <c r="D40" s="102"/>
+      <c r="E40" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="70"/>
       <c r="G40" s="21">
         <v>2</v>
       </c>
@@ -16845,12 +16843,12 @@
       <c r="AG40" s="21"/>
     </row>
     <row r="41" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -16882,16 +16880,16 @@
       <c r="AG41" s="21"/>
     </row>
     <row r="42" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="76" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="54" t="s">
+      <c r="D42" s="102"/>
+      <c r="E42" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="55"/>
+      <c r="F42" s="70"/>
       <c r="G42" s="21">
         <v>1</v>
       </c>
@@ -16975,16 +16973,16 @@
       </c>
     </row>
     <row r="43" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="56" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="80"/>
+      <c r="E43" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="70"/>
       <c r="G43" s="21">
         <v>1</v>
       </c>
@@ -17068,16 +17066,16 @@
       </c>
     </row>
     <row r="44" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="76" t="s">
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="54" t="s">
+      <c r="D44" s="102"/>
+      <c r="E44" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="55"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="21">
         <v>2</v>
       </c>
@@ -17161,16 +17159,16 @@
       </c>
     </row>
     <row r="45" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="56" t="s">
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="53" t="s">
+      <c r="D45" s="80"/>
+      <c r="E45" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="76"/>
       <c r="G45" s="21">
         <v>6</v>
       </c>
@@ -17254,12 +17252,12 @@
       </c>
     </row>
     <row r="46" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -17291,18 +17289,18 @@
       <c r="AG46" s="21"/>
     </row>
     <row r="47" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="82"/>
+      <c r="B47" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="53" t="s">
+      <c r="D47" s="80"/>
+      <c r="E47" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="53"/>
+      <c r="F47" s="76"/>
       <c r="G47" s="21">
         <v>2</v>
       </c>
@@ -17386,12 +17384,12 @@
       </c>
     </row>
     <row r="48" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
@@ -17423,16 +17421,16 @@
       <c r="AG48" s="21"/>
     </row>
     <row r="49" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="56" t="s">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="53" t="s">
+      <c r="D49" s="80"/>
+      <c r="E49" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="53"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="21">
         <v>4</v>
       </c>
@@ -17516,16 +17514,16 @@
       </c>
     </row>
     <row r="50" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="56" t="s">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="53" t="s">
+      <c r="D50" s="80"/>
+      <c r="E50" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="76"/>
       <c r="G50" s="21">
         <v>2</v>
       </c>
@@ -17609,12 +17607,12 @@
       </c>
     </row>
     <row r="51" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
@@ -17646,16 +17644,16 @@
       <c r="AG51" s="21"/>
     </row>
     <row r="52" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="56" t="s">
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="53" t="s">
+      <c r="D52" s="80"/>
+      <c r="E52" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="21">
         <v>2</v>
       </c>
@@ -17736,12 +17734,12 @@
       </c>
     </row>
     <row r="53" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
@@ -17772,16 +17770,16 @@
       <c r="AG53" s="21"/>
     </row>
     <row r="54" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="56" t="s">
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="53" t="s">
+      <c r="D54" s="80"/>
+      <c r="E54" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F54" s="53"/>
+      <c r="F54" s="76"/>
       <c r="G54" s="21">
         <v>2</v>
       </c>
@@ -17865,16 +17863,16 @@
       </c>
     </row>
     <row r="55" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="56" t="s">
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="80" t="s">
         <v>183</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="53" t="s">
+      <c r="D55" s="80"/>
+      <c r="E55" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F55" s="53"/>
+      <c r="F55" s="76"/>
       <c r="G55" s="21">
         <v>2</v>
       </c>
@@ -17958,16 +17956,16 @@
       </c>
     </row>
     <row r="56" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="56" t="s">
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="53" t="s">
+      <c r="D56" s="80"/>
+      <c r="E56" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F56" s="53"/>
+      <c r="F56" s="76"/>
       <c r="G56" s="21">
         <v>4</v>
       </c>
@@ -18051,16 +18049,16 @@
       </c>
     </row>
     <row r="57" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="56" t="s">
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="80" t="s">
         <v>185</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="53" t="s">
+      <c r="D57" s="80"/>
+      <c r="E57" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="53"/>
+      <c r="F57" s="76"/>
       <c r="G57" s="21">
         <v>2</v>
       </c>
@@ -18144,16 +18142,16 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="57"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="56" t="s">
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="53" t="s">
+      <c r="D58" s="80"/>
+      <c r="E58" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="53"/>
+      <c r="F58" s="76"/>
       <c r="G58" s="21">
         <v>4</v>
       </c>
@@ -18235,12 +18233,12 @@
       </c>
     </row>
     <row r="59" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="57"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
@@ -18272,16 +18270,16 @@
       <c r="AG59" s="21"/>
     </row>
     <row r="60" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="56" t="s">
+      <c r="A60" s="82"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="53" t="s">
+      <c r="D60" s="80"/>
+      <c r="E60" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F60" s="53"/>
+      <c r="F60" s="76"/>
       <c r="G60" s="21">
         <v>3</v>
       </c>
@@ -18365,16 +18363,16 @@
       </c>
     </row>
     <row r="61" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="57"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="56" t="s">
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="53" t="s">
+      <c r="D61" s="80"/>
+      <c r="E61" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F61" s="53"/>
+      <c r="F61" s="76"/>
       <c r="G61" s="21">
         <v>2</v>
       </c>
@@ -18458,16 +18456,16 @@
       </c>
     </row>
     <row r="62" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="56" t="s">
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="53" t="s">
+      <c r="D62" s="80"/>
+      <c r="E62" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="76"/>
       <c r="G62" s="21">
         <v>4</v>
       </c>
@@ -18551,16 +18549,16 @@
       </c>
     </row>
     <row r="63" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="57"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="56" t="s">
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="54" t="s">
+      <c r="D63" s="80"/>
+      <c r="E63" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F63" s="55"/>
+      <c r="F63" s="70"/>
       <c r="G63" s="21">
         <v>4</v>
       </c>
@@ -18644,16 +18642,16 @@
       </c>
     </row>
     <row r="64" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="56" t="s">
+      <c r="A64" s="82"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="54" t="s">
+      <c r="D64" s="80"/>
+      <c r="E64" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="55"/>
+      <c r="F64" s="70"/>
       <c r="G64" s="21">
         <v>2</v>
       </c>
@@ -18737,16 +18735,16 @@
       </c>
     </row>
     <row r="65" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="57"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="56" t="s">
+      <c r="A65" s="82"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="53" t="s">
+      <c r="D65" s="80"/>
+      <c r="E65" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F65" s="53"/>
+      <c r="F65" s="76"/>
       <c r="G65" s="21">
         <v>2</v>
       </c>
@@ -18830,16 +18828,16 @@
       </c>
     </row>
     <row r="66" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="56" t="s">
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="80" t="s">
         <v>191</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="53" t="s">
+      <c r="D66" s="80"/>
+      <c r="E66" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F66" s="53"/>
+      <c r="F66" s="76"/>
       <c r="G66" s="21">
         <v>3</v>
       </c>
@@ -18923,16 +18921,16 @@
       </c>
     </row>
     <row r="67" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="56" t="s">
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="53" t="s">
+      <c r="D67" s="80"/>
+      <c r="E67" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F67" s="53"/>
+      <c r="F67" s="76"/>
       <c r="G67" s="21">
         <v>2</v>
       </c>
@@ -19016,16 +19014,16 @@
       </c>
     </row>
     <row r="68" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="56" t="s">
+      <c r="A68" s="82"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="53" t="s">
+      <c r="D68" s="80"/>
+      <c r="E68" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F68" s="53"/>
+      <c r="F68" s="76"/>
       <c r="G68" s="21">
         <v>2</v>
       </c>
@@ -19109,16 +19107,16 @@
       </c>
     </row>
     <row r="69" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="57"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="56" t="s">
+      <c r="A69" s="82"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="80" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="53" t="s">
+      <c r="D69" s="80"/>
+      <c r="E69" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F69" s="53"/>
+      <c r="F69" s="76"/>
       <c r="G69" s="21">
         <v>2</v>
       </c>
@@ -19202,12 +19200,12 @@
       </c>
     </row>
     <row r="70" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="55"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="70"/>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
@@ -19239,16 +19237,16 @@
       <c r="AG70" s="21"/>
     </row>
     <row r="71" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="57"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="56" t="s">
+      <c r="A71" s="82"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="53" t="s">
+      <c r="D71" s="80"/>
+      <c r="E71" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F71" s="53"/>
+      <c r="F71" s="76"/>
       <c r="G71" s="21">
         <v>2</v>
       </c>
@@ -19332,16 +19330,16 @@
       </c>
     </row>
     <row r="72" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="56" t="s">
+      <c r="A72" s="82"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="53" t="s">
+      <c r="D72" s="80"/>
+      <c r="E72" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F72" s="53"/>
+      <c r="F72" s="76"/>
       <c r="G72" s="21">
         <v>5</v>
       </c>
@@ -19425,18 +19423,18 @@
       </c>
     </row>
     <row r="73" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57" t="s">
+      <c r="A73" s="82"/>
+      <c r="B73" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="56" t="s">
+      <c r="C73" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="53" t="s">
+      <c r="D73" s="80"/>
+      <c r="E73" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F73" s="53"/>
+      <c r="F73" s="76"/>
       <c r="G73" s="21">
         <v>1</v>
       </c>
@@ -19520,16 +19518,16 @@
       </c>
     </row>
     <row r="74" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="56" t="s">
+      <c r="A74" s="82"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="53" t="s">
+      <c r="D74" s="80"/>
+      <c r="E74" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F74" s="53"/>
+      <c r="F74" s="76"/>
       <c r="G74" s="21">
         <v>1</v>
       </c>
@@ -19613,16 +19611,16 @@
       </c>
     </row>
     <row r="75" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="56" t="s">
+      <c r="A75" s="82"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="53" t="s">
+      <c r="D75" s="80"/>
+      <c r="E75" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F75" s="53"/>
+      <c r="F75" s="76"/>
       <c r="G75" s="21">
         <v>1</v>
       </c>
@@ -19706,16 +19704,16 @@
       </c>
     </row>
     <row r="76" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="57"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="56" t="s">
+      <c r="A76" s="82"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="53" t="s">
+      <c r="D76" s="80"/>
+      <c r="E76" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F76" s="53"/>
+      <c r="F76" s="76"/>
       <c r="G76" s="21">
         <v>1</v>
       </c>
@@ -19799,16 +19797,16 @@
       </c>
     </row>
     <row r="77" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="56" t="s">
+      <c r="A77" s="82"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="53" t="s">
+      <c r="D77" s="80"/>
+      <c r="E77" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F77" s="53"/>
+      <c r="F77" s="76"/>
       <c r="G77" s="21">
         <v>2</v>
       </c>
@@ -19892,16 +19890,16 @@
       </c>
     </row>
     <row r="78" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="57"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="56" t="s">
+      <c r="A78" s="82"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="53" t="s">
+      <c r="D78" s="80"/>
+      <c r="E78" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F78" s="53"/>
+      <c r="F78" s="76"/>
       <c r="G78" s="21">
         <v>1</v>
       </c>
@@ -19983,16 +19981,16 @@
       </c>
     </row>
     <row r="79" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="76" t="s">
+      <c r="A79" s="82"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="D79" s="77"/>
-      <c r="E79" s="54" t="s">
+      <c r="D79" s="102"/>
+      <c r="E79" s="69" t="s">
         <v>208</v>
       </c>
-      <c r="F79" s="55"/>
+      <c r="F79" s="70"/>
       <c r="G79" s="21">
         <v>1</v>
       </c>
@@ -20076,16 +20074,16 @@
       </c>
     </row>
     <row r="80" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="76" t="s">
+      <c r="A80" s="82"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="D80" s="77"/>
-      <c r="E80" s="54" t="s">
+      <c r="D80" s="102"/>
+      <c r="E80" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F80" s="55"/>
+      <c r="F80" s="70"/>
       <c r="G80" s="48">
         <v>1</v>
       </c>
@@ -20161,16 +20159,16 @@
       <c r="AG80" s="21"/>
     </row>
     <row r="81" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="56" t="s">
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D81" s="56"/>
-      <c r="E81" s="54" t="s">
+      <c r="D81" s="80"/>
+      <c r="E81" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="F81" s="55"/>
+      <c r="F81" s="70"/>
       <c r="G81" s="48">
         <v>1</v>
       </c>
@@ -20246,16 +20244,16 @@
       <c r="AG81" s="21"/>
     </row>
     <row r="82" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="76" t="s">
+      <c r="A82" s="82"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="D82" s="77"/>
-      <c r="E82" s="54" t="s">
+      <c r="D82" s="102"/>
+      <c r="E82" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F82" s="55"/>
+      <c r="F82" s="70"/>
       <c r="G82" s="21">
         <v>1</v>
       </c>
@@ -20339,18 +20337,18 @@
       </c>
     </row>
     <row r="83" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="57"/>
-      <c r="B83" s="57" t="s">
+      <c r="A83" s="82"/>
+      <c r="B83" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="56" t="s">
+      <c r="C83" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="56"/>
-      <c r="E83" s="53" t="s">
+      <c r="D83" s="80"/>
+      <c r="E83" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="F83" s="53"/>
+      <c r="F83" s="76"/>
       <c r="G83" s="21">
         <v>1</v>
       </c>
@@ -20434,16 +20432,16 @@
       </c>
     </row>
     <row r="84" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57"/>
-      <c r="C84" s="56" t="s">
+      <c r="A84" s="82"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D84" s="56"/>
-      <c r="E84" s="53" t="s">
+      <c r="D84" s="80"/>
+      <c r="E84" s="76" t="s">
         <v>210</v>
       </c>
-      <c r="F84" s="53"/>
+      <c r="F84" s="76"/>
       <c r="G84" s="21">
         <v>2</v>
       </c>
@@ -20527,16 +20525,16 @@
       </c>
     </row>
     <row r="85" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="57"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="56" t="s">
+      <c r="A85" s="82"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="D85" s="56"/>
-      <c r="E85" s="53" t="s">
+      <c r="D85" s="80"/>
+      <c r="E85" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="F85" s="53"/>
+      <c r="F85" s="76"/>
       <c r="G85" s="21">
         <v>2</v>
       </c>
@@ -20620,12 +20618,12 @@
       </c>
     </row>
     <row r="86" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="55"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="70"/>
       <c r="G86" s="21"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
@@ -20657,16 +20655,16 @@
       <c r="AG86" s="21"/>
     </row>
     <row r="87" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="56" t="s">
+      <c r="A87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D87" s="56"/>
-      <c r="E87" s="53" t="s">
+      <c r="D87" s="80"/>
+      <c r="E87" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="F87" s="53"/>
+      <c r="F87" s="76"/>
       <c r="G87" s="21">
         <v>1</v>
       </c>
@@ -20750,16 +20748,16 @@
       </c>
     </row>
     <row r="88" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="56" t="s">
+      <c r="A88" s="82"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="53" t="s">
+      <c r="D88" s="80"/>
+      <c r="E88" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="53"/>
+      <c r="F88" s="76"/>
       <c r="G88" s="21">
         <v>1</v>
       </c>
@@ -20843,16 +20841,16 @@
       </c>
     </row>
     <row r="89" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="56" t="s">
+      <c r="A89" s="82"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="D89" s="56"/>
-      <c r="E89" s="53" t="s">
+      <c r="D89" s="80"/>
+      <c r="E89" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="F89" s="53"/>
+      <c r="F89" s="76"/>
       <c r="G89" s="21">
         <v>2</v>
       </c>
@@ -20936,16 +20934,16 @@
       </c>
     </row>
     <row r="90" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="76" t="s">
+      <c r="A90" s="82"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="77"/>
-      <c r="E90" s="54" t="s">
+      <c r="D90" s="102"/>
+      <c r="E90" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="F90" s="55"/>
+      <c r="F90" s="70"/>
       <c r="G90" s="21">
         <v>1</v>
       </c>
@@ -21029,16 +21027,16 @@
       </c>
     </row>
     <row r="91" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="76" t="s">
+      <c r="A91" s="82"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="54" t="s">
+      <c r="D91" s="102"/>
+      <c r="E91" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="F91" s="55"/>
+      <c r="F91" s="70"/>
       <c r="G91" s="21">
         <v>1</v>
       </c>
@@ -21118,16 +21116,16 @@
       <c r="AG91" s="21"/>
     </row>
     <row r="92" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="56" t="s">
+      <c r="A92" s="82"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="56"/>
-      <c r="E92" s="54" t="s">
+      <c r="D92" s="80"/>
+      <c r="E92" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="F92" s="55"/>
+      <c r="F92" s="70"/>
       <c r="G92" s="21">
         <v>1</v>
       </c>
@@ -21211,16 +21209,16 @@
       </c>
     </row>
     <row r="93" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57"/>
-      <c r="C93" s="76" t="s">
+      <c r="A93" s="82"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="77"/>
-      <c r="E93" s="54" t="s">
+      <c r="D93" s="102"/>
+      <c r="E93" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F93" s="55"/>
+      <c r="F93" s="70"/>
       <c r="G93" s="21">
         <v>1</v>
       </c>
@@ -21300,12 +21298,12 @@
       <c r="AG93" s="21"/>
     </row>
     <row r="94" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="57"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
       <c r="G94" s="21">
         <v>0</v>
       </c>
@@ -21389,18 +21387,18 @@
       </c>
     </row>
     <row r="95" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="57"/>
-      <c r="B95" s="57" t="s">
+      <c r="A95" s="82"/>
+      <c r="B95" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="C95" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D95" s="56"/>
-      <c r="E95" s="53" t="s">
+      <c r="D95" s="80"/>
+      <c r="E95" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F95" s="53"/>
+      <c r="F95" s="76"/>
       <c r="G95" s="21">
         <v>1</v>
       </c>
@@ -21484,16 +21482,16 @@
       </c>
     </row>
     <row r="96" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="57"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="56" t="s">
+      <c r="A96" s="82"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D96" s="56"/>
-      <c r="E96" s="53" t="s">
+      <c r="D96" s="80"/>
+      <c r="E96" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F96" s="53"/>
+      <c r="F96" s="76"/>
       <c r="G96" s="21">
         <v>2</v>
       </c>
@@ -21577,12 +21575,12 @@
       </c>
     </row>
     <row r="97" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="57"/>
-      <c r="B97" s="57"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="55"/>
+      <c r="A97" s="82"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="70"/>
       <c r="G97" s="21"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
@@ -21614,16 +21612,16 @@
       <c r="AG97" s="21"/>
     </row>
     <row r="98" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="56" t="s">
+      <c r="A98" s="82"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="53" t="s">
+      <c r="D98" s="80"/>
+      <c r="E98" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F98" s="53"/>
+      <c r="F98" s="76"/>
       <c r="G98" s="21">
         <v>2</v>
       </c>
@@ -21707,16 +21705,16 @@
       </c>
     </row>
     <row r="99" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
-      <c r="B99" s="57"/>
-      <c r="C99" s="56" t="s">
+      <c r="A99" s="82"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="D99" s="56"/>
-      <c r="E99" s="53" t="s">
+      <c r="D99" s="80"/>
+      <c r="E99" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F99" s="53"/>
+      <c r="F99" s="76"/>
       <c r="G99" s="21">
         <v>2</v>
       </c>
@@ -21800,16 +21798,16 @@
       </c>
     </row>
     <row r="100" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="56" t="s">
+      <c r="A100" s="82"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="D100" s="56"/>
-      <c r="E100" s="53" t="s">
+      <c r="D100" s="80"/>
+      <c r="E100" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F100" s="53"/>
+      <c r="F100" s="76"/>
       <c r="G100" s="21">
         <v>2</v>
       </c>
@@ -21893,12 +21891,12 @@
       </c>
     </row>
     <row r="101" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="55"/>
+      <c r="A101" s="82"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="69"/>
+      <c r="F101" s="70"/>
       <c r="G101" s="21"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
@@ -21930,16 +21928,16 @@
       <c r="AG101" s="21"/>
     </row>
     <row r="102" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="57"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="56" t="s">
+      <c r="A102" s="82"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D102" s="56"/>
-      <c r="E102" s="53" t="s">
+      <c r="D102" s="80"/>
+      <c r="E102" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F102" s="53"/>
+      <c r="F102" s="76"/>
       <c r="G102" s="21">
         <v>2</v>
       </c>
@@ -22021,16 +22019,16 @@
       <c r="AG102" s="21"/>
     </row>
     <row r="103" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="76" t="s">
+      <c r="A103" s="82"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="D103" s="77"/>
-      <c r="E103" s="54" t="s">
+      <c r="D103" s="102"/>
+      <c r="E103" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="F103" s="55"/>
+      <c r="F103" s="70"/>
       <c r="G103" s="21">
         <v>2</v>
       </c>
@@ -22114,16 +22112,16 @@
       </c>
     </row>
     <row r="104" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="57"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="76" t="s">
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="D104" s="77"/>
-      <c r="E104" s="54" t="s">
+      <c r="D104" s="102"/>
+      <c r="E104" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="F104" s="55"/>
+      <c r="F104" s="70"/>
       <c r="G104" s="21">
         <v>1</v>
       </c>
@@ -22205,16 +22203,16 @@
       <c r="AG104" s="21"/>
     </row>
     <row r="105" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="57"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="56" t="s">
+      <c r="A105" s="82"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="D105" s="56"/>
-      <c r="E105" s="54" t="s">
+      <c r="D105" s="80"/>
+      <c r="E105" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="F105" s="55"/>
+      <c r="F105" s="70"/>
       <c r="G105" s="21">
         <v>1</v>
       </c>
@@ -22298,16 +22296,16 @@
       </c>
     </row>
     <row r="106" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="76" t="s">
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="D106" s="77"/>
-      <c r="E106" s="54" t="s">
+      <c r="D106" s="102"/>
+      <c r="E106" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="F106" s="55"/>
+      <c r="F106" s="70"/>
       <c r="G106" s="21">
         <v>1</v>
       </c>
@@ -22391,18 +22389,18 @@
       </c>
     </row>
     <row r="107" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57" t="s">
+      <c r="A107" s="82"/>
+      <c r="B107" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C107" s="56" t="s">
+      <c r="C107" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="56"/>
-      <c r="E107" s="53" t="s">
+      <c r="D107" s="80"/>
+      <c r="E107" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F107" s="53"/>
+      <c r="F107" s="76"/>
       <c r="G107" s="21">
         <v>5</v>
       </c>
@@ -22486,16 +22484,16 @@
       </c>
     </row>
     <row r="108" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="57"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="56" t="s">
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D108" s="56"/>
-      <c r="E108" s="53" t="s">
+      <c r="D108" s="80"/>
+      <c r="E108" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="F108" s="53"/>
+      <c r="F108" s="76"/>
       <c r="G108" s="21">
         <v>5</v>
       </c>
@@ -22579,21 +22577,21 @@
       </c>
     </row>
     <row r="109" spans="1:33" s="42" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="57"/>
-      <c r="B109" s="74" t="s">
+      <c r="A109" s="82"/>
+      <c r="B109" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="69" t="s">
+      <c r="C109" s="108"/>
+      <c r="D109" s="108"/>
+      <c r="E109" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="69"/>
-      <c r="G109" s="91">
+      <c r="F109" s="75"/>
+      <c r="G109" s="99">
         <f>SUM(H16:H108)</f>
         <v>154</v>
       </c>
-      <c r="H109" s="92"/>
+      <c r="H109" s="100"/>
       <c r="I109" s="40">
         <f>SUM(I16:I108)</f>
         <v>149</v>
@@ -22603,8 +22601,8 @@
         <v>139</v>
       </c>
       <c r="K109" s="40">
-        <f>SUM(K16:K108)-J18</f>
-        <v>142</v>
+        <f>SUM(K16:K108)</f>
+        <v>140</v>
       </c>
       <c r="L109" s="40">
         <f>SUM(L16:L108)</f>
@@ -22696,216 +22694,219 @@
       </c>
     </row>
     <row r="110" spans="1:33" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="57"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="69" t="s">
+      <c r="A110" s="82"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="108"/>
+      <c r="E110" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="F110" s="69"/>
-      <c r="G110" s="54">
+      <c r="F110" s="75"/>
+      <c r="G110" s="69">
         <f>SUM(G16:G108)</f>
         <v>159</v>
       </c>
-      <c r="H110" s="55"/>
+      <c r="H110" s="70"/>
       <c r="I110" s="21">
-        <f>SUM(I16:I108)</f>
+        <f t="shared" ref="I110:AG110" si="3">SUM(I16:I108)</f>
         <v>149</v>
       </c>
       <c r="J110" s="21">
-        <f>SUM(J16:J108)</f>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="K110" s="21">
-        <f>SUM(K16:K108)</f>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="L110" s="21">
-        <f>SUM(L16:L108)</f>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="M110" s="21">
-        <f>SUM(M16:M108)</f>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="N110" s="21">
-        <f>SUM(N16:N108)</f>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="O110" s="21">
-        <f>SUM(O16:O108)</f>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="P110" s="21">
-        <f>SUM(P16:P108)</f>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="Q110" s="21">
-        <f>SUM(Q16:Q108)</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="R110" s="21">
-        <f>SUM(R16:R108)</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="S110" s="21">
-        <f>SUM(S16:S108)</f>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="T110" s="21">
-        <f>SUM(T16:T108)</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="U110" s="21">
-        <f>SUM(U16:U108)</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="V110" s="21">
-        <f>SUM(V16:V108)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="W110" s="21">
-        <f>SUM(W16:W108)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="X110" s="21">
-        <f>SUM(X16:X108)</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="Y110" s="21">
-        <f>SUM(Y16:Y108)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="Z110" s="21">
-        <f>SUM(Z16:Z108)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="AA110" s="21">
-        <f>SUM(AA16:AA108)</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="AB110" s="21">
-        <f>SUM(AB16:AB108)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="AC110" s="21">
-        <f>SUM(AC16:AC108)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="AD110" s="21">
-        <f>SUM(AD16:AD108)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="AE110" s="21">
-        <f>SUM(AE16:AE108)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="AF110" s="21">
-        <f>SUM(AF16:AF108)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AG110" s="21">
-        <f>SUM(AG16:AG108)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C131" s="78"/>
-      <c r="D131" s="78"/>
+      <c r="C131" s="103"/>
+      <c r="D131" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A16:A110"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B109:D110"/>
+    <mergeCell ref="B20:B33"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="B47:B72"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B95:B106"/>
+    <mergeCell ref="B83:B94"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C64:D64"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="C131:D131"/>
@@ -22930,100 +22931,97 @@
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E77:F77"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="B47:B72"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B95:B106"/>
-    <mergeCell ref="B83:B94"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A16:A110"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E110:F110"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B109:D110"/>
-    <mergeCell ref="B20:B33"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E99:F99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -23036,7 +23034,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23045,45 +23043,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86" t="s">
+      <c r="E2" s="117"/>
+      <c r="F2" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86" t="s">
+      <c r="G2" s="117"/>
+      <c r="H2" s="117" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86" t="s">
+      <c r="I2" s="117"/>
+      <c r="J2" s="117" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="87"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="26" t="s">
         <v>12</v>
       </c>
@@ -23119,7 +23117,7 @@
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>45</v>
       </c>
       <c r="C4" s="28">
@@ -23232,10 +23230,10 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="81"/>
+      <c r="F9" s="112"/>
     </row>
     <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="E10" s="32" t="s">
